--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A6BF5-A67B-41FD-A342-384F377E5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A84583-C839-4721-8A53-C42F08C1957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="241">
   <si>
     <t>customerId</t>
   </si>
@@ -144,9 +144,6 @@
     <t>basicSalary</t>
   </si>
   <si>
-    <t>rateOfBonus</t>
-  </si>
-  <si>
     <t>staff1</t>
   </si>
   <si>
@@ -799,6 +796,12 @@
   </si>
   <si>
     <t>last</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>bonus</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1222,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1236,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1245,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1259,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1268,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1282,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1291,13 +1294,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1305,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1314,13 +1317,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1328,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1337,13 +1340,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1351,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1360,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1374,22 +1377,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1397,22 +1400,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1420,22 +1423,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1443,22 +1446,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1466,22 +1469,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1489,22 +1492,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1512,22 +1515,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1535,22 +1538,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1558,22 +1561,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1581,22 +1584,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1604,22 +1607,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1627,22 +1630,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1650,22 +1653,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1673,22 +1676,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1696,22 +1699,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1719,22 +1722,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1742,22 +1745,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1765,22 +1768,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1788,22 +1791,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1839,34 +1842,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -1886,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1922,14 +1925,14 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="8">
         <f>C5-C4</f>
         <v>481809789923.08008</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K3">
         <f>ROUNDUP(K2/3,0)</f>
@@ -1939,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M19" si="0">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
+        <f t="shared" ref="M3:M18" si="0">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
         <v>1</v>
       </c>
       <c r="N3" s="6">
@@ -1953,14 +1956,14 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE")</f>
         <v>319856758000</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4">
         <f>K3</f>
@@ -1984,17 +1987,17 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="7">
         <f>C9</f>
         <v>801666547923.08008</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5">
         <f>K2-K3-K4</f>
@@ -2018,14 +2021,14 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="7">
         <f>SUM(Account!I:I)</f>
         <v>1421196923.0799999</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -2045,14 +2048,14 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(Saving!I:I)</f>
         <v>500245351000</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -2072,13 +2075,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="7">
         <v>300000000000</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
@@ -2256,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16:N19" si="4">N15</f>
+        <f t="shared" ref="N16:N18" si="4">N15</f>
         <v>0.02</v>
       </c>
       <c r="O16" s="23">
@@ -2397,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2411,17 +2414,18 @@
     <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" customWidth="1"/>
-    <col min="9" max="24" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" customWidth="1"/>
+    <col min="10" max="25" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2430,94 +2434,94 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>7000000</v>
       </c>
-      <c r="G2" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2">
         <v>7500000</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>6000000</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2535,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2545,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2554,30 +2558,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>17000000</v>
@@ -2586,7 +2590,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2615,512 +2619,512 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9">
         <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9">
         <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9">
         <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9">
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9">
         <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9">
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="9">
         <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9">
         <v>30</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9">
         <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="9">
         <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9">
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4114,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4135,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4144,28 +4148,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -4179,7 +4183,7 @@
         <v>41092</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>537251</v>
@@ -4193,7 +4197,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -4210,7 +4214,7 @@
         <v>43316</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>238237</v>
@@ -4224,7 +4228,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -4241,7 +4245,7 @@
         <v>41334</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>536806</v>
@@ -4255,7 +4259,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -4272,7 +4276,7 @@
         <v>42255</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>75604</v>
@@ -4286,7 +4290,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -4303,7 +4307,7 @@
         <v>42469</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>113622</v>
@@ -4317,7 +4321,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -4334,7 +4338,7 @@
         <v>40723</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>287474</v>
@@ -4348,7 +4352,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -4365,7 +4369,7 @@
         <v>40590</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>4113</v>
@@ -4379,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -4396,7 +4400,7 @@
         <v>41097</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>4172</v>
@@ -4410,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -4427,7 +4431,7 @@
         <v>42263</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>1626</v>
@@ -4441,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -4458,7 +4462,7 @@
         <v>41451</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>3420</v>
@@ -4472,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -4489,7 +4493,7 @@
         <v>43745</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>3742</v>
@@ -4503,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -4520,7 +4524,7 @@
         <v>40997</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>4345</v>
@@ -4534,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -4551,7 +4555,7 @@
         <v>43422</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H14">
         <v>323</v>
@@ -4565,7 +4569,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -4582,7 +4586,7 @@
         <v>41168</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15">
         <v>210</v>
@@ -4596,7 +4600,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -4613,7 +4617,7 @@
         <v>40835</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -4627,7 +4631,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -4644,7 +4648,7 @@
         <v>44123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17">
         <v>481</v>
@@ -4658,7 +4662,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -4675,7 +4679,7 @@
         <v>41981</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18">
         <v>287</v>
@@ -4689,7 +4693,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -4706,7 +4710,7 @@
         <v>41004</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19">
         <v>491</v>
@@ -4720,7 +4724,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -4737,7 +4741,7 @@
         <v>42846</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <v>9980102</v>
@@ -4751,7 +4755,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -4768,7 +4772,7 @@
         <v>44145</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>5476967</v>
@@ -4782,7 +4786,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -4799,7 +4803,7 @@
         <v>44904</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>4549845</v>
@@ -4813,7 +4817,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -4830,7 +4834,7 @@
         <v>43775</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23">
         <v>5863377</v>
@@ -4844,7 +4848,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -4861,7 +4865,7 @@
         <v>43591</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <v>8448457</v>
@@ -4875,7 +4879,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -4892,7 +4896,7 @@
         <v>44831</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25">
         <v>3872282</v>
@@ -4906,7 +4910,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -4923,7 +4927,7 @@
         <v>42794</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>5739796</v>
@@ -4937,7 +4941,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -4954,7 +4958,7 @@
         <v>43645</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>7755939</v>
@@ -4968,7 +4972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -4985,7 +4989,7 @@
         <v>44874</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>7213398</v>
@@ -4999,7 +5003,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -5016,7 +5020,7 @@
         <v>44413</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>6577462</v>
@@ -5030,7 +5034,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -5047,7 +5051,7 @@
         <v>43560</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>2960169</v>
@@ -5061,7 +5065,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -5078,7 +5082,7 @@
         <v>44453</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>8009206</v>
@@ -5092,7 +5096,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -5109,7 +5113,7 @@
         <v>44206</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <v>7747227</v>
@@ -5123,7 +5127,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -5140,7 +5144,7 @@
         <v>44862</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>8563947</v>
@@ -5154,7 +5158,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -5171,7 +5175,7 @@
         <v>43873</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>9371489</v>
@@ -5185,7 +5189,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -5202,7 +5206,7 @@
         <v>43135</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>5359387</v>
@@ -5216,7 +5220,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -5230,7 +5234,7 @@
         <v>43851</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>7487506</v>
@@ -5244,7 +5248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -5261,7 +5265,7 @@
         <v>44812</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>1603258</v>
@@ -5275,7 +5279,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -5292,7 +5296,7 @@
         <v>44040</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38">
         <v>2798196</v>
@@ -5306,7 +5310,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -5323,7 +5327,7 @@
         <v>43760</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39">
         <v>150</v>
@@ -5337,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -5354,7 +5358,7 @@
         <v>44115</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40">
         <v>2967</v>
@@ -5368,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -5385,7 +5389,7 @@
         <v>44188</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41">
         <v>214</v>
@@ -5399,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -5416,7 +5420,7 @@
         <v>43139</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42">
         <v>2850</v>
@@ -5430,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -5447,7 +5451,7 @@
         <v>44198</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43">
         <v>2852</v>
@@ -5461,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -5478,7 +5482,7 @@
         <v>44371</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>351</v>
@@ -5492,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -5509,7 +5513,7 @@
         <v>44043</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45">
         <v>124</v>
@@ -5523,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -5540,7 +5544,7 @@
         <v>43807</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46">
         <v>1990</v>
@@ -5554,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -5571,7 +5575,7 @@
         <v>44072</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47">
         <v>434</v>
@@ -5585,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -5602,7 +5606,7 @@
         <v>44302</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48">
         <v>1177</v>
@@ -5616,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -5633,7 +5637,7 @@
         <v>43405</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49">
         <v>779</v>
@@ -5647,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -5664,7 +5668,7 @@
         <v>43605</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>360</v>
@@ -5678,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -5692,7 +5696,7 @@
         <v>44204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51">
         <v>270</v>
@@ -5706,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -5723,7 +5727,7 @@
         <v>43202</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52">
         <v>194</v>
@@ -5737,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -5754,7 +5758,7 @@
         <v>43331</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53">
         <v>420</v>
@@ -5768,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -5782,7 +5786,7 @@
         <v>44422</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54">
         <v>277</v>
@@ -5796,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -5813,7 +5817,7 @@
         <v>43798</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55">
         <v>1875</v>
@@ -5827,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
@@ -5844,7 +5848,7 @@
         <v>43490</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56">
         <v>662</v>
@@ -5858,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
@@ -5875,7 +5879,7 @@
         <v>44425</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57">
         <v>2053</v>
@@ -5889,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -5906,7 +5910,7 @@
         <v>43277</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H58">
         <v>646</v>
@@ -5920,7 +5924,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -5934,7 +5938,7 @@
         <v>44312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H59">
         <v>676</v>
@@ -5948,7 +5952,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -5965,7 +5969,7 @@
         <v>44407</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H60">
         <v>643</v>
@@ -5979,7 +5983,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -5996,7 +6000,7 @@
         <v>44225</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H61">
         <v>710</v>
@@ -6010,7 +6014,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -6027,7 +6031,7 @@
         <v>43860</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62">
         <v>555</v>
@@ -6041,7 +6045,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -6058,7 +6062,7 @@
         <v>43148</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H63">
         <v>445</v>
@@ -6072,7 +6076,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -6089,7 +6093,7 @@
         <v>44407</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H64">
         <v>44</v>
@@ -6103,7 +6107,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
@@ -6120,7 +6124,7 @@
         <v>43845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H65">
         <v>242</v>
@@ -6134,7 +6138,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -6151,7 +6155,7 @@
         <v>43287</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H66">
         <v>83</v>
@@ -6165,7 +6169,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
@@ -6182,7 +6186,7 @@
         <v>43744</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H67">
         <v>990</v>
@@ -6196,7 +6200,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -6213,7 +6217,7 @@
         <v>43209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H68">
         <v>973</v>
@@ -6227,7 +6231,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -6244,7 +6248,7 @@
         <v>43609</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H69">
         <v>658</v>
@@ -6258,7 +6262,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -6275,7 +6279,7 @@
         <v>43615</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H70">
         <v>814</v>
@@ -6289,7 +6293,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -6306,7 +6310,7 @@
         <v>43638</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H71">
         <v>656</v>
@@ -6320,7 +6324,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
@@ -6337,7 +6341,7 @@
         <v>44272</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -6351,7 +6355,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
@@ -6368,7 +6372,7 @@
         <v>43325</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73">
         <v>470</v>
@@ -6382,7 +6386,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -6396,7 +6400,7 @@
         <v>44237</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H74">
         <v>740</v>
@@ -6410,7 +6414,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -6427,7 +6431,7 @@
         <v>43356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H75">
         <v>426</v>
@@ -6441,7 +6445,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -6458,7 +6462,7 @@
         <v>43771</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H76">
         <v>389</v>
@@ -6472,7 +6476,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +6491,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6508,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6517,28 +6521,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>3</v>
@@ -6562,7 +6566,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>3000000000</v>
@@ -6576,7 +6580,7 @@
         <v>0.11600000000000003</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(B2,Customer!$A$2:$F$26,6)</f>
@@ -6604,7 +6608,7 @@
         <v>240</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7">
         <v>10000000000</v>
@@ -6618,7 +6622,7 @@
         <v>0.13300000000000003</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" t="str">
         <f>VLOOKUP(B3,Customer!$A$2:$F$26,6)</f>
@@ -6646,7 +6650,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>14000000000</v>
@@ -6660,7 +6664,7 @@
         <v>0.12200000000000004</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(B4,Customer!$A$2:$F$26,6)</f>
@@ -6681,7 +6685,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>38000000000</v>
@@ -6695,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6716,7 +6720,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>30000000000</v>
@@ -6730,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
@@ -6758,7 +6762,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>11000000000</v>
@@ -6772,7 +6776,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" t="str">
         <f>VLOOKUP(B7,Customer!$A$2:$F$26,6)</f>
@@ -6800,7 +6804,7 @@
         <v>120</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>628877</v>
@@ -6814,7 +6818,7 @@
         <v>4.1000000000000009E-2</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" t="str">
         <f>VLOOKUP(B8,Customer!$A$2:$F$26,6)</f>
@@ -6842,7 +6846,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>904812</v>
@@ -6856,7 +6860,7 @@
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP(B9,Customer!$A$2:$F$26,6)</f>
@@ -6877,7 +6881,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>112665</v>
@@ -6891,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6919,7 +6923,7 @@
         <v>240</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>908493</v>
@@ -6933,7 +6937,7 @@
         <v>4.200000000000001E-2</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(B11,Customer!$A$2:$F$26,6)</f>
@@ -6954,7 +6958,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>230145</v>
@@ -6968,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
@@ -6996,7 +7000,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>530446</v>
@@ -7010,7 +7014,7 @@
         <v>3.9000000000000007E-2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(B13,Customer!$A$2:$F$26,6)</f>
@@ -7038,7 +7042,7 @@
         <v>240</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>39000000000</v>
@@ -7052,7 +7056,7 @@
         <v>0.12800000000000003</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" t="str">
         <f>VLOOKUP(B14,Customer!$A$2:$F$26,6)</f>
@@ -7080,7 +7084,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>48000000000</v>
@@ -7094,7 +7098,7 @@
         <v>0.13700000000000004</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(B15,Customer!$A$2:$F$26,6)</f>
@@ -7122,7 +7126,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>31000000000</v>
@@ -7136,7 +7140,7 @@
         <v>0.13400000000000004</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" t="str">
         <f>VLOOKUP(B16,Customer!$A$2:$F$26,6)</f>
@@ -7164,7 +7168,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>42000000000</v>
@@ -7178,7 +7182,7 @@
         <v>0.11200000000000003</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(B17,Customer!$A$2:$F$26,6)</f>
@@ -7199,7 +7203,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>45000000000</v>
@@ -7213,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
@@ -7241,7 +7245,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>19000000000</v>
@@ -7255,7 +7259,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" t="str">
         <f>VLOOKUP(B19,Customer!$A$2:$F$26,6)</f>
@@ -7283,7 +7287,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>31000000000</v>
@@ -7297,7 +7301,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L20" t="str">
         <f>VLOOKUP(B20,Customer!$A$2:$F$26,6)</f>
@@ -7322,7 +7326,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2000000000</v>
@@ -7336,7 +7340,7 @@
         <v>0.11700000000000003</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(B21,Customer!$A$2:$F$26,6)</f>
@@ -7352,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -7373,7 +7377,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7382,28 +7386,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -7427,7 +7431,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>300000000</v>
@@ -7440,7 +7444,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -7464,7 +7468,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7">
         <v>1000000000</v>
@@ -7477,7 +7481,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -7501,7 +7505,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>1400000000</v>
@@ -7514,7 +7518,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -7538,7 +7542,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>3800000000</v>
@@ -7551,7 +7555,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -7575,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>3000000000</v>
@@ -7588,7 +7592,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -7612,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>1100000000</v>
@@ -7625,7 +7629,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -7649,7 +7653,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>62887699999.999992</v>
@@ -7662,7 +7666,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -7686,7 +7690,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7">
         <v>90481200000</v>
@@ -7699,7 +7703,7 @@
         <v>6.2000000000000013E-2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -7723,7 +7727,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
         <v>11266500000</v>
@@ -7736,7 +7740,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7760,7 +7764,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>90849300000</v>
@@ -7773,7 +7777,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -7797,7 +7801,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>23014500000</v>
@@ -7810,7 +7814,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -7834,7 +7838,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>53044600000</v>
@@ -7847,7 +7851,7 @@
         <v>6.2000000000000013E-2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -7871,7 +7875,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3900000000</v>
@@ -7884,7 +7888,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -7908,7 +7912,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>4800000000</v>
@@ -7921,7 +7925,7 @@
         <v>7.7000000000000027E-2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -7945,7 +7949,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>3100000000</v>
@@ -7958,7 +7962,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -7982,7 +7986,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>4200000000</v>
@@ -7995,7 +7999,7 @@
         <v>6.8000000000000019E-2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -8019,7 +8023,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>4500000000</v>
@@ -8032,7 +8036,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -8056,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>1900000000</v>
@@ -8069,7 +8073,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -8093,7 +8097,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>3100000000</v>
@@ -8106,7 +8110,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -8130,7 +8134,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>17000000000</v>
@@ -8143,7 +8147,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -8167,7 +8171,7 @@
         <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>1500000000</v>
@@ -8180,7 +8184,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -8204,7 +8208,7 @@
         <v>48</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="7">
         <v>15000000000</v>
@@ -8217,7 +8221,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -8241,7 +8245,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>2000000000</v>
@@ -8254,7 +8258,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -8278,7 +8282,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="7">
         <v>20000000000</v>
@@ -8291,7 +8295,7 @@
         <v>7.7000000000000027E-2</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -8315,7 +8319,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>6000000000</v>
@@ -8328,7 +8332,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -8352,7 +8356,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>200000000</v>
@@ -8365,7 +8369,7 @@
         <v>6.8000000000000019E-2</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -8389,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>8500000000</v>
@@ -8402,7 +8406,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -8426,7 +8430,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="7">
         <v>6000000000</v>
@@ -8439,7 +8443,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -8463,7 +8467,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>200000</v>
@@ -8476,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -8500,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="7">
         <v>200001</v>
@@ -8513,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -8537,7 +8541,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="7">
         <v>200002</v>
@@ -8550,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -8574,7 +8578,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="7">
         <v>200003</v>
@@ -8587,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -8611,7 +8615,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="7">
         <v>200004</v>
@@ -8624,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -8648,7 +8652,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="7">
         <v>200005</v>
@@ -8661,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -8685,7 +8689,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="7">
         <v>200006</v>
@@ -8698,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -8722,7 +8726,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>200007</v>
@@ -8735,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -8759,7 +8763,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="7">
         <v>200008</v>
@@ -8772,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -8796,7 +8800,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>200009</v>
@@ -8809,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -8833,7 +8837,7 @@
         <v>60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" s="7">
         <v>200010</v>
@@ -8846,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -8870,7 +8874,7 @@
         <v>24</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="7">
         <v>200011</v>
@@ -8883,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8909,16 +8913,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8926,10 +8930,10 @@
         <v>44926</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8940,10 +8944,10 @@
         <v>44926</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>23500</v>
@@ -8954,10 +8958,10 @@
         <v>44926</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>26071.69</v>
@@ -8968,10 +8972,10 @@
         <v>44926</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>22035.58</v>
@@ -8982,10 +8986,10 @@
         <v>44926</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>30379</v>
@@ -8996,10 +9000,10 @@
         <v>44926</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>16271</v>
@@ -9010,10 +9014,10 @@
         <v>44926</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>191</v>
@@ -9024,10 +9028,10 @@
         <v>44926</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>23032.799999999999</v>
@@ -9038,10 +9042,10 @@
         <v>44926</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>3416.69</v>
@@ -9052,10 +9056,10 @@
         <v>44926</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>2576.69</v>
@@ -9066,10 +9070,10 @@
         <v>44926</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>18.89</v>
@@ -9080,10 +9084,10 @@
         <v>44926</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>15281.28</v>
@@ -9114,22 +9118,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
-      </c>
-      <c r="D1" t="s">
-        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -9137,10 +9141,10 @@
         <v>44926</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -9157,10 +9161,10 @@
         <v>44926</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -9178,10 +9182,10 @@
         <v>44926</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -9199,10 +9203,10 @@
         <v>44926</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -9220,10 +9224,10 @@
         <v>44926</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -9241,10 +9245,10 @@
         <v>44926</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -9262,10 +9266,10 @@
         <v>44926</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -9283,10 +9287,10 @@
         <v>44926</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -9304,10 +9308,10 @@
         <v>44926</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -9325,10 +9329,10 @@
         <v>44926</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -9346,10 +9350,10 @@
         <v>44926</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12">
         <v>84</v>
@@ -9367,10 +9371,10 @@
         <v>44926</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -9388,10 +9392,10 @@
         <v>44926</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14">
         <v>240</v>
@@ -9409,10 +9413,10 @@
         <v>44926</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15">
         <v>360</v>
@@ -9430,10 +9434,10 @@
         <v>44926</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -9451,10 +9455,10 @@
         <v>44926</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -9472,10 +9476,10 @@
         <v>44926</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -9493,10 +9497,10 @@
         <v>44926</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -9514,10 +9518,10 @@
         <v>44926</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -9535,10 +9539,10 @@
         <v>44926</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -9556,10 +9560,10 @@
         <v>44926</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22">
         <v>24</v>
@@ -9577,10 +9581,10 @@
         <v>44926</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23">
         <v>36</v>
@@ -9598,10 +9602,10 @@
         <v>44926</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24">
         <v>48</v>
@@ -9619,10 +9623,10 @@
         <v>44926</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -9640,10 +9644,10 @@
         <v>44926</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>84</v>
@@ -9661,10 +9665,10 @@
         <v>44926</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27">
         <v>120</v>
@@ -9682,10 +9686,10 @@
         <v>44926</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28">
         <v>240</v>
@@ -9703,10 +9707,10 @@
         <v>44926</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29">
         <v>360</v>
@@ -9724,10 +9728,10 @@
         <v>44926</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -9745,10 +9749,10 @@
         <v>44926</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -9766,10 +9770,10 @@
         <v>44926</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -9787,10 +9791,10 @@
         <v>44926</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33">
         <v>12</v>
@@ -9808,10 +9812,10 @@
         <v>44926</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -9829,10 +9833,10 @@
         <v>44926</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35">
         <v>18</v>
@@ -9850,10 +9854,10 @@
         <v>44926</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -9871,10 +9875,10 @@
         <v>44926</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -9892,10 +9896,10 @@
         <v>44926</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38">
         <v>48</v>
@@ -9913,10 +9917,10 @@
         <v>44926</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -9934,10 +9938,10 @@
         <v>44926</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40">
         <v>84</v>
@@ -9955,10 +9959,10 @@
         <v>44926</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41">
         <v>120</v>
@@ -9976,10 +9980,10 @@
         <v>44926</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42">
         <v>240</v>
@@ -9997,10 +10001,10 @@
         <v>44926</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43">
         <v>360</v>
@@ -10018,10 +10022,10 @@
         <v>44926</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -10038,10 +10042,10 @@
         <v>44926</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -10059,10 +10063,10 @@
         <v>44926</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -10080,10 +10084,10 @@
         <v>44926</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -10101,10 +10105,10 @@
         <v>44926</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -10122,10 +10126,10 @@
         <v>44926</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49">
         <v>18</v>
@@ -10143,10 +10147,10 @@
         <v>44926</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -10164,10 +10168,10 @@
         <v>44926</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51">
         <v>36</v>
@@ -10185,10 +10189,10 @@
         <v>44926</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52">
         <v>48</v>
@@ -10206,10 +10210,10 @@
         <v>44926</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53">
         <v>60</v>
@@ -10227,10 +10231,10 @@
         <v>44926</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54">
         <v>84</v>
@@ -10248,10 +10252,10 @@
         <v>44926</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D55">
         <v>120</v>
@@ -10269,10 +10273,10 @@
         <v>44926</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -10290,10 +10294,10 @@
         <v>44926</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57">
         <v>360</v>
@@ -10311,10 +10315,10 @@
         <v>44926</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -10332,10 +10336,10 @@
         <v>44926</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -10353,10 +10357,10 @@
         <v>44926</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -10374,10 +10378,10 @@
         <v>44926</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -10395,10 +10399,10 @@
         <v>44926</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D62">
         <v>15</v>
@@ -10416,10 +10420,10 @@
         <v>44926</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63">
         <v>18</v>
@@ -10437,10 +10441,10 @@
         <v>44926</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -10458,10 +10462,10 @@
         <v>44926</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65">
         <v>36</v>
@@ -10479,10 +10483,10 @@
         <v>44926</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D66">
         <v>48</v>
@@ -10500,10 +10504,10 @@
         <v>44926</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67">
         <v>60</v>
@@ -10521,10 +10525,10 @@
         <v>44926</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68">
         <v>84</v>
@@ -10542,10 +10546,10 @@
         <v>44926</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -10563,10 +10567,10 @@
         <v>44926</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70">
         <v>240</v>
@@ -10584,10 +10588,10 @@
         <v>44926</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71">
         <v>360</v>
@@ -10605,10 +10609,10 @@
         <v>44926</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -10626,10 +10630,10 @@
         <v>44926</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -10647,10 +10651,10 @@
         <v>44926</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -10668,10 +10672,10 @@
         <v>44926</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -10689,10 +10693,10 @@
         <v>44926</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76">
         <v>15</v>
@@ -10710,10 +10714,10 @@
         <v>44926</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77">
         <v>18</v>
@@ -10731,10 +10735,10 @@
         <v>44926</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78">
         <v>24</v>
@@ -10752,10 +10756,10 @@
         <v>44926</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79">
         <v>36</v>
@@ -10773,10 +10777,10 @@
         <v>44926</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D80">
         <v>48</v>
@@ -10794,10 +10798,10 @@
         <v>44926</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81">
         <v>60</v>
@@ -10815,10 +10819,10 @@
         <v>44926</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D82">
         <v>84</v>
@@ -10836,10 +10840,10 @@
         <v>44926</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83">
         <v>120</v>
@@ -10857,10 +10861,10 @@
         <v>44926</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84">
         <v>240</v>
@@ -10878,10 +10882,10 @@
         <v>44926</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85">
         <v>360</v>
@@ -10899,10 +10903,10 @@
         <v>44926</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -10916,10 +10920,10 @@
         <v>44926</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10934,10 +10938,10 @@
         <v>44926</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -10952,10 +10956,10 @@
         <v>44926</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -10970,10 +10974,10 @@
         <v>44926</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90">
         <v>15</v>
@@ -10988,10 +10992,10 @@
         <v>44926</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -11006,10 +11010,10 @@
         <v>44926</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -11024,10 +11028,10 @@
         <v>44926</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D93">
         <v>36</v>
@@ -11042,10 +11046,10 @@
         <v>44926</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -11060,10 +11064,10 @@
         <v>44926</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -11078,10 +11082,10 @@
         <v>44926</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -11095,10 +11099,10 @@
         <v>44926</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -11112,10 +11116,10 @@
         <v>44926</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -11129,10 +11133,10 @@
         <v>44926</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -11146,10 +11150,10 @@
         <v>44926</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -11163,10 +11167,10 @@
         <v>44926</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -11180,10 +11184,10 @@
         <v>44926</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -11197,10 +11201,10 @@
         <v>44926</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D103">
         <v>36</v>
@@ -11214,10 +11218,10 @@
         <v>44926</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104">
         <v>48</v>
@@ -11231,10 +11235,10 @@
         <v>44926</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -11248,10 +11252,10 @@
         <v>44926</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -11265,10 +11269,10 @@
         <v>44926</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -11282,10 +11286,10 @@
         <v>44926</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -11299,10 +11303,10 @@
         <v>44926</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -11316,10 +11320,10 @@
         <v>44926</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -11333,10 +11337,10 @@
         <v>44926</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D111">
         <v>18</v>
@@ -11350,10 +11354,10 @@
         <v>44926</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112">
         <v>24</v>
@@ -11367,10 +11371,10 @@
         <v>44926</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D113">
         <v>36</v>
@@ -11384,10 +11388,10 @@
         <v>44926</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -11401,10 +11405,10 @@
         <v>44926</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -11418,10 +11422,10 @@
         <v>44926</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
@@ -11432,10 +11436,10 @@
         <v>44926</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -11446,10 +11450,10 @@
         <v>44926</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11460,10 +11464,10 @@
         <v>44926</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F119" s="6">
         <v>1E-3</v>
@@ -11474,10 +11478,10 @@
         <v>44926</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F120" s="6">
         <v>1E-3</v>
@@ -11488,10 +11492,10 @@
         <v>44926</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F121" s="6">
         <v>1E-3</v>
@@ -11502,10 +11506,10 @@
         <v>44926</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F122" s="6">
         <v>1E-3</v>
@@ -11516,10 +11520,10 @@
         <v>44926</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F123" s="6">
         <v>2E-3</v>
@@ -11530,10 +11534,10 @@
         <v>44926</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11544,10 +11548,10 @@
         <v>44926</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11558,10 +11562,10 @@
         <v>44926</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11572,10 +11576,10 @@
         <v>44926</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F127" s="6">
         <v>1E-3</v>

--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A84583-C839-4721-8A53-C42F08C1957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198104A6-A29D-449E-99A0-456FB01016BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="exchangeRate" sheetId="6" r:id="rId8"/>
     <sheet name="interestRate" sheetId="9" r:id="rId9"/>
     <sheet name="transactionLog" sheetId="11" r:id="rId10"/>
-    <sheet name="BS" sheetId="10" r:id="rId11"/>
+    <sheet name="ratingUpdate" sheetId="12" r:id="rId11"/>
+    <sheet name="BS" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">interestRate!$A$1:$F$15</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="246">
   <si>
     <t>customerId</t>
   </si>
@@ -802,6 +803,21 @@
   </si>
   <si>
     <t>bonus</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>requestCreation</t>
+  </si>
+  <si>
+    <t>currentRating</t>
+  </si>
+  <si>
+    <t>proposedRating</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
@@ -813,11 +829,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,37 +969,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1810,7 +1834,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1879,22 +1903,88 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
     <sortCondition ref="B1:B36"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C236A0-EBEA-4274-B7D1-BA52EDA4A413}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
@@ -2267,7 +2357,7 @@
         <v>9292699.8799997307</v>
       </c>
     </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I17" s="8">
         <f>G27*12</f>
         <v>450000000</v>
@@ -2288,7 +2378,10 @@
         <v>9292699.8799997307</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="7">
+        <v>1421196923.0799999</v>
+      </c>
       <c r="I18" s="8">
         <f>I16-I17</f>
         <v>5807937424.9998322</v>
@@ -2309,7 +2402,7 @@
         <v>9292699.8799997307</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I19" s="24">
         <f>I18*10%</f>
         <v>580793742.49998319</v>
@@ -2320,7 +2413,7 @@
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I20" s="23">
         <f>20%*I19</f>
         <v>116158748.49999665</v>
@@ -2330,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G21" s="7">
         <v>7000000</v>
       </c>
@@ -2347,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G22" s="7">
         <v>7500000</v>
       </c>
@@ -2360,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G23" s="7">
         <v>6000000</v>
       </c>
@@ -2373,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G26" s="7">
         <v>17000000</v>
       </c>
@@ -2382,7 +2475,7 @@
         <v>204000000</v>
       </c>
     </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G27" s="8">
         <f>SUM(G21:G26)</f>
         <v>37500000</v>
@@ -2604,7 +2697,7 @@
   <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4108,7 +4201,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4118,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6480,7 +6573,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6491,7 +6584,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="433">
   <si>
     <t>customerId</t>
   </si>
@@ -1344,6 +1344,42 @@
   </si>
   <si>
     <t>BALANCE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cusB</t>
+  </si>
+  <si>
+    <t>b@b.com</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>2023-05-14 00:49:12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staffN</t>
+  </si>
+  <si>
+    <t>d@d.com</t>
+  </si>
+  <si>
+    <t>newStaff</t>
+  </si>
+  <si>
+    <t>CFD</t>
+  </si>
+  <si>
+    <t>2023-05-14 00:50:21</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1731,13 +1767,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.1328125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.1328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1995,22 +2031,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
@@ -2018,19 +2054,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -2041,19 +2077,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -2064,22 +2100,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>85</v>
@@ -2087,19 +2123,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2110,22 +2146,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
@@ -2133,22 +2169,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -2156,22 +2192,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -2179,19 +2215,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -2202,22 +2238,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>85</v>
@@ -2225,22 +2261,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -2248,22 +2284,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
         <v>85</v>
@@ -2271,22 +2307,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>85</v>
@@ -2294,19 +2330,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2317,24 +2353,47 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>2.0</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2347,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -2355,18 +2414,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.19921875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.19921875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -2406,14 +2465,18 @@
         <v>0.0</v>
       </c>
       <c r="B2"/>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>421</v>
+      </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
@@ -2456,6 +2519,70 @@
         <v>9.999999999E9</v>
       </c>
       <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.23345456E8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2158244917406396E12</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2479,13 +2606,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.19921875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.796875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2548,17 +2675,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.9296875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.86328125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.9296875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.86328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -2699,7 +2826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -2707,16 +2834,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.59765625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.73046875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.3984375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="9.3984375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.59765625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.86328125" collapsed="false"/>
-    <col min="10" max="25" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.73046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.86328125" collapsed="true"/>
+    <col min="10" max="25" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -2750,24 +2877,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>429</v>
       </c>
       <c r="F2" t="n">
-        <v>7000000.0</v>
-      </c>
-      <c r="G2"/>
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>85</v>
@@ -2775,24 +2904,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>6000000.0</v>
-      </c>
-      <c r="G3"/>
+        <v>7000000.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H3"/>
       <c r="I3" t="s">
         <v>85</v>
@@ -2800,26 +2931,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>7500000.0</v>
-      </c>
-      <c r="G4"/>
+        <v>6000000.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7500000.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2839,11 +2999,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="9.73046875" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.53125" collapsed="false"/>
-    <col min="6" max="25" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.73046875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.53125" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2886,7 +3046,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.085</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -2900,7 +3060,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -2908,12 +3068,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.53125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.1328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.19921875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="4.1328125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.53125" collapsed="false"/>
-    <col min="6" max="15" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.1328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="4.1328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="6" max="15" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -3105,237 +3265,237 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>66.0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
@@ -3343,86 +3503,120 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>44.0</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="n">
         <v>15.0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3435,7 +3629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I76"/>
@@ -3443,17 +3637,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.86328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.86328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -3498,12 +3692,16 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D2" t="s">
         <v>238</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G2" t="s">
         <v>80</v>
       </c>
@@ -3534,7 +3732,9 @@
         <v>239</v>
       </c>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G3" t="s">
         <v>80</v>
       </c>
@@ -3565,7 +3765,9 @@
         <v>240</v>
       </c>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
@@ -3596,7 +3798,9 @@
         <v>241</v>
       </c>
       <c r="E5"/>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G5" t="s">
         <v>80</v>
       </c>
@@ -3627,7 +3831,9 @@
         <v>242</v>
       </c>
       <c r="E6"/>
-      <c r="F6"/>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G6" t="s">
         <v>80</v>
       </c>
@@ -3658,7 +3864,9 @@
         <v>243</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G7" t="s">
         <v>80</v>
       </c>
@@ -3689,7 +3897,9 @@
         <v>244</v>
       </c>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G8" t="s">
         <v>81</v>
       </c>
@@ -3720,7 +3930,9 @@
         <v>245</v>
       </c>
       <c r="E9"/>
-      <c r="F9"/>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G9" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +3963,9 @@
         <v>246</v>
       </c>
       <c r="E10"/>
-      <c r="F10"/>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G10" t="s">
         <v>81</v>
       </c>
@@ -3782,7 +3996,9 @@
         <v>247</v>
       </c>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G11" t="s">
         <v>81</v>
       </c>
@@ -3813,7 +4029,9 @@
         <v>248</v>
       </c>
       <c r="E12"/>
-      <c r="F12"/>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G12" t="s">
         <v>81</v>
       </c>
@@ -3844,7 +4062,9 @@
         <v>249</v>
       </c>
       <c r="E13"/>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G13" t="s">
         <v>81</v>
       </c>
@@ -3875,15 +4095,17 @@
         <v>250</v>
       </c>
       <c r="E14"/>
-      <c r="F14"/>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G14" t="s">
         <v>205</v>
       </c>
       <c r="H14" t="n">
-        <v>323.0</v>
+        <v>1.23345779E8</v>
       </c>
       <c r="I14" t="n">
-        <v>8421155.87</v>
+        <v>3.21583291289651E12</v>
       </c>
       <c r="J14" t="n">
         <v>0.004</v>
@@ -3906,7 +4128,9 @@
         <v>251</v>
       </c>
       <c r="E15"/>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G15" t="s">
         <v>205</v>
       </c>
@@ -3937,7 +4161,9 @@
         <v>252</v>
       </c>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G16" t="s">
         <v>205</v>
       </c>
@@ -3968,7 +4194,9 @@
         <v>253</v>
       </c>
       <c r="E17"/>
-      <c r="F17"/>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G17" t="s">
         <v>205</v>
       </c>
@@ -3999,7 +4227,9 @@
         <v>254</v>
       </c>
       <c r="E18"/>
-      <c r="F18"/>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G18" t="s">
         <v>205</v>
       </c>
@@ -4030,7 +4260,9 @@
         <v>255</v>
       </c>
       <c r="E19"/>
-      <c r="F19"/>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G19" t="s">
         <v>205</v>
       </c>
@@ -4061,7 +4293,9 @@
         <v>256</v>
       </c>
       <c r="E20"/>
-      <c r="F20"/>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G20" t="s">
         <v>80</v>
       </c>
@@ -4092,7 +4326,9 @@
         <v>257</v>
       </c>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G21" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +4359,9 @@
         <v>258</v>
       </c>
       <c r="E22"/>
-      <c r="F22"/>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G22" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4392,9 @@
         <v>259</v>
       </c>
       <c r="E23"/>
-      <c r="F23"/>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G23" t="s">
         <v>80</v>
       </c>
@@ -4185,7 +4425,9 @@
         <v>260</v>
       </c>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" t="s">
         <v>80</v>
       </c>
@@ -4216,7 +4458,9 @@
         <v>261</v>
       </c>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" t="s">
         <v>80</v>
       </c>
@@ -4247,7 +4491,9 @@
         <v>262</v>
       </c>
       <c r="E26"/>
-      <c r="F26"/>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
@@ -4278,7 +4524,9 @@
         <v>263</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G27" t="s">
         <v>80</v>
       </c>
@@ -4309,7 +4557,9 @@
         <v>264</v>
       </c>
       <c r="E28"/>
-      <c r="F28"/>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G28" t="s">
         <v>80</v>
       </c>
@@ -4340,7 +4590,9 @@
         <v>265</v>
       </c>
       <c r="E29"/>
-      <c r="F29"/>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" t="s">
         <v>80</v>
       </c>
@@ -4371,7 +4623,9 @@
         <v>266</v>
       </c>
       <c r="E30"/>
-      <c r="F30"/>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" t="s">
         <v>80</v>
       </c>
@@ -4402,7 +4656,9 @@
         <v>267</v>
       </c>
       <c r="E31"/>
-      <c r="F31"/>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G31" t="s">
         <v>80</v>
       </c>
@@ -4433,7 +4689,9 @@
         <v>268</v>
       </c>
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G32" t="s">
         <v>80</v>
       </c>
@@ -4464,7 +4722,9 @@
         <v>269</v>
       </c>
       <c r="E33"/>
-      <c r="F33"/>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G33" t="s">
         <v>80</v>
       </c>
@@ -4495,7 +4755,9 @@
         <v>270</v>
       </c>
       <c r="E34"/>
-      <c r="F34"/>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G34" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +4788,9 @@
         <v>271</v>
       </c>
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G35" t="s">
         <v>80</v>
       </c>
@@ -4550,12 +4814,16 @@
       <c r="B36" t="n">
         <v>23.0</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D36" t="s">
         <v>272</v>
       </c>
       <c r="E36"/>
-      <c r="F36"/>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G36" t="s">
         <v>80</v>
       </c>
@@ -4586,7 +4854,9 @@
         <v>273</v>
       </c>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G37" t="s">
         <v>80</v>
       </c>
@@ -4617,7 +4887,9 @@
         <v>274</v>
       </c>
       <c r="E38"/>
-      <c r="F38"/>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G38" t="s">
         <v>80</v>
       </c>
@@ -4648,7 +4920,9 @@
         <v>275</v>
       </c>
       <c r="E39"/>
-      <c r="F39"/>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G39" t="s">
         <v>81</v>
       </c>
@@ -4679,7 +4953,9 @@
         <v>276</v>
       </c>
       <c r="E40"/>
-      <c r="F40"/>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G40" t="s">
         <v>81</v>
       </c>
@@ -4710,7 +4986,9 @@
         <v>277</v>
       </c>
       <c r="E41"/>
-      <c r="F41"/>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G41" t="s">
         <v>81</v>
       </c>
@@ -4741,7 +5019,9 @@
         <v>278</v>
       </c>
       <c r="E42"/>
-      <c r="F42"/>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G42" t="s">
         <v>81</v>
       </c>
@@ -4772,7 +5052,9 @@
         <v>279</v>
       </c>
       <c r="E43"/>
-      <c r="F43"/>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G43" t="s">
         <v>81</v>
       </c>
@@ -4803,7 +5085,9 @@
         <v>280</v>
       </c>
       <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G44" t="s">
         <v>81</v>
       </c>
@@ -4834,7 +5118,9 @@
         <v>281</v>
       </c>
       <c r="E45"/>
-      <c r="F45"/>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G45" t="s">
         <v>81</v>
       </c>
@@ -4865,7 +5151,9 @@
         <v>282</v>
       </c>
       <c r="E46"/>
-      <c r="F46"/>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G46" t="s">
         <v>81</v>
       </c>
@@ -4896,7 +5184,9 @@
         <v>283</v>
       </c>
       <c r="E47"/>
-      <c r="F47"/>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G47" t="s">
         <v>81</v>
       </c>
@@ -4927,7 +5217,9 @@
         <v>284</v>
       </c>
       <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G48" t="s">
         <v>81</v>
       </c>
@@ -4958,7 +5250,9 @@
         <v>285</v>
       </c>
       <c r="E49"/>
-      <c r="F49"/>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G49" t="s">
         <v>81</v>
       </c>
@@ -4989,7 +5283,9 @@
         <v>286</v>
       </c>
       <c r="E50"/>
-      <c r="F50"/>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G50" t="s">
         <v>81</v>
       </c>
@@ -5013,12 +5309,16 @@
       <c r="B51" t="n">
         <v>19.0</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D51" t="s">
         <v>287</v>
       </c>
       <c r="E51"/>
-      <c r="F51"/>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G51" t="s">
         <v>81</v>
       </c>
@@ -5049,7 +5349,9 @@
         <v>288</v>
       </c>
       <c r="E52"/>
-      <c r="F52"/>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G52" t="s">
         <v>81</v>
       </c>
@@ -5080,7 +5382,9 @@
         <v>289</v>
       </c>
       <c r="E53"/>
-      <c r="F53"/>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G53" t="s">
         <v>81</v>
       </c>
@@ -5104,12 +5408,16 @@
       <c r="B54" t="n">
         <v>22.0</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D54" t="s">
         <v>290</v>
       </c>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G54" t="s">
         <v>81</v>
       </c>
@@ -5140,7 +5448,9 @@
         <v>291</v>
       </c>
       <c r="E55"/>
-      <c r="F55"/>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G55" t="s">
         <v>81</v>
       </c>
@@ -5171,7 +5481,9 @@
         <v>292</v>
       </c>
       <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G56" t="s">
         <v>81</v>
       </c>
@@ -5202,7 +5514,9 @@
         <v>293</v>
       </c>
       <c r="E57"/>
-      <c r="F57"/>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G57" t="s">
         <v>81</v>
       </c>
@@ -5233,7 +5547,9 @@
         <v>294</v>
       </c>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G58" t="s">
         <v>205</v>
       </c>
@@ -5257,12 +5573,16 @@
       <c r="B59" t="n">
         <v>8.0</v>
       </c>
-      <c r="C59"/>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D59" t="s">
         <v>295</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G59" t="s">
         <v>205</v>
       </c>
@@ -5293,7 +5613,9 @@
         <v>296</v>
       </c>
       <c r="E60"/>
-      <c r="F60"/>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G60" t="s">
         <v>205</v>
       </c>
@@ -5324,7 +5646,9 @@
         <v>297</v>
       </c>
       <c r="E61"/>
-      <c r="F61"/>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G61" t="s">
         <v>205</v>
       </c>
@@ -5355,7 +5679,9 @@
         <v>298</v>
       </c>
       <c r="E62"/>
-      <c r="F62"/>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G62" t="s">
         <v>205</v>
       </c>
@@ -5386,7 +5712,9 @@
         <v>299</v>
       </c>
       <c r="E63"/>
-      <c r="F63"/>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G63" t="s">
         <v>205</v>
       </c>
@@ -5417,7 +5745,9 @@
         <v>296</v>
       </c>
       <c r="E64"/>
-      <c r="F64"/>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G64" t="s">
         <v>205</v>
       </c>
@@ -5448,7 +5778,9 @@
         <v>300</v>
       </c>
       <c r="E65"/>
-      <c r="F65"/>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G65" t="s">
         <v>205</v>
       </c>
@@ -5479,7 +5811,9 @@
         <v>301</v>
       </c>
       <c r="E66"/>
-      <c r="F66"/>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G66" t="s">
         <v>205</v>
       </c>
@@ -5510,7 +5844,9 @@
         <v>302</v>
       </c>
       <c r="E67"/>
-      <c r="F67"/>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G67" t="s">
         <v>205</v>
       </c>
@@ -5541,7 +5877,9 @@
         <v>303</v>
       </c>
       <c r="E68"/>
-      <c r="F68"/>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G68" t="s">
         <v>205</v>
       </c>
@@ -5572,7 +5910,9 @@
         <v>304</v>
       </c>
       <c r="E69"/>
-      <c r="F69"/>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G69" t="s">
         <v>205</v>
       </c>
@@ -5603,7 +5943,9 @@
         <v>305</v>
       </c>
       <c r="E70"/>
-      <c r="F70"/>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G70" t="s">
         <v>205</v>
       </c>
@@ -5634,7 +5976,9 @@
         <v>306</v>
       </c>
       <c r="E71"/>
-      <c r="F71"/>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G71" t="s">
         <v>205</v>
       </c>
@@ -5665,7 +6009,9 @@
         <v>307</v>
       </c>
       <c r="E72"/>
-      <c r="F72"/>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G72" t="s">
         <v>205</v>
       </c>
@@ -5696,7 +6042,9 @@
         <v>308</v>
       </c>
       <c r="E73"/>
-      <c r="F73"/>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G73" t="s">
         <v>205</v>
       </c>
@@ -5720,12 +6068,16 @@
       <c r="B74" t="n">
         <v>23.0</v>
       </c>
-      <c r="C74"/>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D74" t="s">
         <v>309</v>
       </c>
       <c r="E74"/>
-      <c r="F74"/>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G74" t="s">
         <v>205</v>
       </c>
@@ -5756,7 +6108,9 @@
         <v>310</v>
       </c>
       <c r="E75"/>
-      <c r="F75"/>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G75" t="s">
         <v>205</v>
       </c>
@@ -5787,7 +6141,9 @@
         <v>311</v>
       </c>
       <c r="E76"/>
-      <c r="F76"/>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G76" t="s">
         <v>205</v>
       </c>
@@ -5811,12 +6167,16 @@
       <c r="B77" t="n">
         <v>1.0</v>
       </c>
-      <c r="C77"/>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D77" t="s">
         <v>312</v>
       </c>
       <c r="E77"/>
-      <c r="F77"/>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G77" t="s">
         <v>80</v>
       </c>
@@ -5830,6 +6190,72 @@
         <v>0.005</v>
       </c>
       <c r="K77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5843,7 +6269,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M21"/>
@@ -5851,19 +6277,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -5911,7 +6337,9 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D2" t="s">
         <v>313</v>
       </c>
@@ -6554,7 +6982,9 @@
       <c r="B21" t="n">
         <v>2.0</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D21" t="s">
         <v>341</v>
       </c>
@@ -6578,6 +7008,37 @@
       </c>
       <c r="K21" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.0E7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.037000000000000005</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6595,17 +7056,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -8058,10 +8519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8261,12 +8722,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -9982,7 +10443,9 @@
       <c r="D86" t="n">
         <v>3.0</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="s">
+        <v>421</v>
+      </c>
       <c r="F86" t="n">
         <v>0.05</v>
       </c>
@@ -10000,7 +10463,9 @@
       <c r="D87" t="n">
         <v>6.0</v>
       </c>
-      <c r="E87"/>
+      <c r="E87" t="s">
+        <v>421</v>
+      </c>
       <c r="F87" t="n">
         <v>0.053000000000000005</v>
       </c>
@@ -10018,7 +10483,9 @@
       <c r="D88" t="n">
         <v>9.0</v>
       </c>
-      <c r="E88"/>
+      <c r="E88" t="s">
+        <v>421</v>
+      </c>
       <c r="F88" t="n">
         <v>0.05600000000000001</v>
       </c>
@@ -10036,7 +10503,9 @@
       <c r="D89" t="n">
         <v>12.0</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="s">
+        <v>421</v>
+      </c>
       <c r="F89" t="n">
         <v>0.05900000000000001</v>
       </c>
@@ -10054,7 +10523,9 @@
       <c r="D90" t="n">
         <v>15.0</v>
       </c>
-      <c r="E90"/>
+      <c r="E90" t="s">
+        <v>421</v>
+      </c>
       <c r="F90" t="n">
         <v>0.06200000000000001</v>
       </c>
@@ -10072,7 +10543,9 @@
       <c r="D91" t="n">
         <v>18.0</v>
       </c>
-      <c r="E91"/>
+      <c r="E91" t="s">
+        <v>421</v>
+      </c>
       <c r="F91" t="n">
         <v>0.06500000000000002</v>
       </c>
@@ -10090,7 +10563,9 @@
       <c r="D92" t="n">
         <v>24.0</v>
       </c>
-      <c r="E92"/>
+      <c r="E92" t="s">
+        <v>421</v>
+      </c>
       <c r="F92" t="n">
         <v>0.06800000000000002</v>
       </c>
@@ -10108,7 +10583,9 @@
       <c r="D93" t="n">
         <v>36.0</v>
       </c>
-      <c r="E93"/>
+      <c r="E93" t="s">
+        <v>421</v>
+      </c>
       <c r="F93" t="n">
         <v>0.07100000000000002</v>
       </c>
@@ -10126,7 +10603,9 @@
       <c r="D94" t="n">
         <v>48.0</v>
       </c>
-      <c r="E94"/>
+      <c r="E94" t="s">
+        <v>421</v>
+      </c>
       <c r="F94" t="n">
         <v>0.07400000000000002</v>
       </c>
@@ -10144,7 +10623,9 @@
       <c r="D95" t="n">
         <v>60.0</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="s">
+        <v>421</v>
+      </c>
       <c r="F95" t="n">
         <v>0.07700000000000003</v>
       </c>
@@ -10162,7 +10643,9 @@
       <c r="D96" t="n">
         <v>3.0</v>
       </c>
-      <c r="E96"/>
+      <c r="E96" t="s">
+        <v>421</v>
+      </c>
       <c r="F96" t="n">
         <v>0.0</v>
       </c>
@@ -10180,7 +10663,9 @@
       <c r="D97" t="n">
         <v>6.0</v>
       </c>
-      <c r="E97"/>
+      <c r="E97" t="s">
+        <v>421</v>
+      </c>
       <c r="F97" t="n">
         <v>0.0</v>
       </c>
@@ -10198,7 +10683,9 @@
       <c r="D98" t="n">
         <v>9.0</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="s">
+        <v>421</v>
+      </c>
       <c r="F98" t="n">
         <v>0.0</v>
       </c>
@@ -10216,7 +10703,9 @@
       <c r="D99" t="n">
         <v>12.0</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
       <c r="F99" t="n">
         <v>0.0</v>
       </c>
@@ -10234,7 +10723,9 @@
       <c r="D100" t="n">
         <v>15.0</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" t="s">
+        <v>421</v>
+      </c>
       <c r="F100" t="n">
         <v>0.0</v>
       </c>
@@ -10252,7 +10743,9 @@
       <c r="D101" t="n">
         <v>18.0</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" t="s">
+        <v>421</v>
+      </c>
       <c r="F101" t="n">
         <v>0.0</v>
       </c>
@@ -10270,7 +10763,9 @@
       <c r="D102" t="n">
         <v>24.0</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="s">
+        <v>421</v>
+      </c>
       <c r="F102" t="n">
         <v>0.0</v>
       </c>
@@ -10288,7 +10783,9 @@
       <c r="D103" t="n">
         <v>36.0</v>
       </c>
-      <c r="E103"/>
+      <c r="E103" t="s">
+        <v>421</v>
+      </c>
       <c r="F103" t="n">
         <v>0.0</v>
       </c>
@@ -10306,7 +10803,9 @@
       <c r="D104" t="n">
         <v>48.0</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="s">
+        <v>421</v>
+      </c>
       <c r="F104" t="n">
         <v>0.0</v>
       </c>
@@ -10324,7 +10823,9 @@
       <c r="D105" t="n">
         <v>60.0</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="s">
+        <v>421</v>
+      </c>
       <c r="F105" t="n">
         <v>0.0</v>
       </c>
@@ -10342,7 +10843,9 @@
       <c r="D106" t="n">
         <v>3.0</v>
       </c>
-      <c r="E106"/>
+      <c r="E106" t="s">
+        <v>421</v>
+      </c>
       <c r="F106" t="n">
         <v>0.0</v>
       </c>
@@ -10360,7 +10863,9 @@
       <c r="D107" t="n">
         <v>6.0</v>
       </c>
-      <c r="E107"/>
+      <c r="E107" t="s">
+        <v>421</v>
+      </c>
       <c r="F107" t="n">
         <v>0.0</v>
       </c>
@@ -10378,7 +10883,9 @@
       <c r="D108" t="n">
         <v>9.0</v>
       </c>
-      <c r="E108"/>
+      <c r="E108" t="s">
+        <v>421</v>
+      </c>
       <c r="F108" t="n">
         <v>0.0</v>
       </c>
@@ -10396,7 +10903,9 @@
       <c r="D109" t="n">
         <v>12.0</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="s">
+        <v>421</v>
+      </c>
       <c r="F109" t="n">
         <v>0.0</v>
       </c>
@@ -10414,7 +10923,9 @@
       <c r="D110" t="n">
         <v>15.0</v>
       </c>
-      <c r="E110"/>
+      <c r="E110" t="s">
+        <v>421</v>
+      </c>
       <c r="F110" t="n">
         <v>0.0</v>
       </c>
@@ -10432,7 +10943,9 @@
       <c r="D111" t="n">
         <v>18.0</v>
       </c>
-      <c r="E111"/>
+      <c r="E111" t="s">
+        <v>421</v>
+      </c>
       <c r="F111" t="n">
         <v>0.0</v>
       </c>
@@ -10450,7 +10963,9 @@
       <c r="D112" t="n">
         <v>24.0</v>
       </c>
-      <c r="E112"/>
+      <c r="E112" t="s">
+        <v>421</v>
+      </c>
       <c r="F112" t="n">
         <v>0.0</v>
       </c>
@@ -10468,7 +10983,9 @@
       <c r="D113" t="n">
         <v>36.0</v>
       </c>
-      <c r="E113"/>
+      <c r="E113" t="s">
+        <v>421</v>
+      </c>
       <c r="F113" t="n">
         <v>0.0</v>
       </c>
@@ -10486,7 +11003,9 @@
       <c r="D114" t="n">
         <v>48.0</v>
       </c>
-      <c r="E114"/>
+      <c r="E114" t="s">
+        <v>421</v>
+      </c>
       <c r="F114" t="n">
         <v>0.0</v>
       </c>
@@ -10504,7 +11023,9 @@
       <c r="D115" t="n">
         <v>60.0</v>
       </c>
-      <c r="E115"/>
+      <c r="E115" t="s">
+        <v>421</v>
+      </c>
       <c r="F115" t="n">
         <v>0.0</v>
       </c>
@@ -10519,8 +11040,12 @@
       <c r="C116" t="s">
         <v>206</v>
       </c>
-      <c r="D116"/>
-      <c r="E116"/>
+      <c r="D116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>421</v>
+      </c>
       <c r="F116" t="n">
         <v>0.005</v>
       </c>
@@ -10535,8 +11060,12 @@
       <c r="C117" t="s">
         <v>206</v>
       </c>
-      <c r="D117"/>
-      <c r="E117"/>
+      <c r="D117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>421</v>
+      </c>
       <c r="F117" t="n">
         <v>0.0</v>
       </c>
@@ -10551,8 +11080,12 @@
       <c r="C118" t="s">
         <v>206</v>
       </c>
-      <c r="D118"/>
-      <c r="E118"/>
+      <c r="D118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>421</v>
+      </c>
       <c r="F118" t="n">
         <v>0.004</v>
       </c>
@@ -10567,8 +11100,12 @@
       <c r="C119" t="s">
         <v>206</v>
       </c>
-      <c r="D119"/>
-      <c r="E119"/>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>421</v>
+      </c>
       <c r="F119" t="n">
         <v>0.001</v>
       </c>
@@ -10583,8 +11120,12 @@
       <c r="C120" t="s">
         <v>206</v>
       </c>
-      <c r="D120"/>
-      <c r="E120"/>
+      <c r="D120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>421</v>
+      </c>
       <c r="F120" t="n">
         <v>0.001</v>
       </c>
@@ -10599,8 +11140,12 @@
       <c r="C121" t="s">
         <v>206</v>
       </c>
-      <c r="D121"/>
-      <c r="E121"/>
+      <c r="D121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>421</v>
+      </c>
       <c r="F121" t="n">
         <v>0.001</v>
       </c>
@@ -10615,8 +11160,12 @@
       <c r="C122" t="s">
         <v>206</v>
       </c>
-      <c r="D122"/>
-      <c r="E122"/>
+      <c r="D122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>421</v>
+      </c>
       <c r="F122" t="n">
         <v>0.001</v>
       </c>
@@ -10631,8 +11180,12 @@
       <c r="C123" t="s">
         <v>206</v>
       </c>
-      <c r="D123"/>
-      <c r="E123"/>
+      <c r="D123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>421</v>
+      </c>
       <c r="F123" t="n">
         <v>0.002</v>
       </c>
@@ -10647,8 +11200,12 @@
       <c r="C124" t="s">
         <v>206</v>
       </c>
-      <c r="D124"/>
-      <c r="E124"/>
+      <c r="D124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>421</v>
+      </c>
       <c r="F124" t="n">
         <v>0.004</v>
       </c>
@@ -10663,8 +11220,12 @@
       <c r="C125" t="s">
         <v>206</v>
       </c>
-      <c r="D125"/>
-      <c r="E125"/>
+      <c r="D125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>421</v>
+      </c>
       <c r="F125" t="n">
         <v>0.003</v>
       </c>
@@ -10679,8 +11240,12 @@
       <c r="C126" t="s">
         <v>206</v>
       </c>
-      <c r="D126"/>
-      <c r="E126"/>
+      <c r="D126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>421</v>
+      </c>
       <c r="F126" t="n">
         <v>0.003</v>
       </c>
@@ -10695,8 +11260,12 @@
       <c r="C127" t="s">
         <v>206</v>
       </c>
-      <c r="D127"/>
-      <c r="E127"/>
+      <c r="D127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>421</v>
+      </c>
       <c r="F127" t="n">
         <v>0.001</v>
       </c>

--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{927350A9-BDEB-4D0D-B6CB-E536AEC9FDF3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1AD94BAC-26F3-4775-B085-BD3CEF02635F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="11" tabRatio="781" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView activeTab="4" tabRatio="781" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" r:id="rId1" sheetId="1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="440">
   <si>
     <t>customerId</t>
   </si>
@@ -1380,18 +1380,38 @@
   </si>
   <si>
     <t>2023-05-14 00:50:21</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:06:29</t>
+  </si>
+  <si>
+    <t>14/05/2028</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:25:27</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:26:20</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:34:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,40 +1457,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1516,32 +1503,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="43"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="1"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1761,9 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2276,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -2398,7 +2379,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2406,21 +2387,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="17.59765625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.73046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="true"/>
@@ -2428,63 +2409,65 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B2"/>
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>9.999999999E9</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>9.999999999E9</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -2492,31 +2475,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
         <v>420</v>
       </c>
       <c r="D3" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" t="s">
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>9.999999999E9</v>
+        <v>99999.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.999999999E9</v>
+        <v>99999.0</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -2524,31 +2507,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
         <v>420</v>
       </c>
       <c r="D4" t="n">
-        <v>77.0</v>
+        <v>13.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="G4" t="n">
-        <v>99999.0</v>
+        <v>1.23345456E8</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>99999.0</v>
+        <v>3.2158244917406396E12</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -2556,10 +2539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
         <v>420</v>
@@ -2574,23 +2557,119 @@
         <v>205</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23345456E8</v>
+        <v>9.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2158244917406396E12</v>
+        <v>234645.21</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>260716.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>500000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.177889887460307</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
-    <sortCondition ref="B1:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B35">
+    <sortCondition ref="B1:B35"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -2598,16 +2677,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C236A0-EBEA-4274-B7D1-BA52EDA4A413}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="13.3984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
@@ -2616,25 +2695,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2656,6 +2735,29 @@
         <v>6</v>
       </c>
       <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2669,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2706,27 +2808,27 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
         <v>8926627936.0000019</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B3)</f>
         <v>496999709.68000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B3)</f>
         <v>258181929000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f>+D3+E3</f>
         <v>258678928709.67999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
         <v>79263082000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="11">
         <f>0.7*C3+0.2*F3+0.1*G3</f>
         <v>65910733497.136002</v>
       </c>
@@ -2735,27 +2837,27 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
         <v>9588153759.0000019</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B4)</f>
         <v>399359421.6400001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B4)</f>
         <v>159896170000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f ref="F4:F5" si="0" t="shared">+D4+E4</f>
         <v>160295529421.64001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
         <v>87465481000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="11">
         <f ref="H4:H5" si="1" t="shared">0.7*C4+0.2*F4+0.1*G4</f>
         <v>47517361615.628006</v>
       </c>
@@ -2764,29 +2866,29 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
         <v>14546605580.500004</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B5)</f>
-        <v>467041021.71999997</v>
-      </c>
-      <c r="E5" s="7">
+        <v>458619865.84999996</v>
+      </c>
+      <c r="E5" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B5)</f>
         <v>82167252000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f si="0" t="shared"/>
-        <v>82634293021.720001</v>
-      </c>
-      <c r="G5" s="7">
+        <v>82625871865.850006</v>
+      </c>
+      <c r="G5" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
         <v>148128195000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="11">
         <f si="1" t="shared"/>
-        <v>41522302010.694</v>
+        <v>41520617779.520004</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -2804,7 +2906,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>160295529421.64001</v>
       </c>
       <c r="J13">
@@ -2829,7 +2931,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2897,7 +2999,9 @@
       <c r="G2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="n">
+        <v>9280480.965419464</v>
+      </c>
       <c r="I2" t="s">
         <v>85</v>
       </c>
@@ -2922,9 +3026,11 @@
         <v>7000000.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H3"/>
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.640240482709733E7</v>
+      </c>
       <c r="I3" t="s">
         <v>85</v>
       </c>
@@ -2949,9 +3055,11 @@
         <v>6000000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4"/>
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9280480.965419464</v>
+      </c>
       <c r="I4" t="s">
         <v>85</v>
       </c>
@@ -2976,9 +3084,11 @@
         <v>7500000.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H5"/>
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.3201202413548663E7</v>
+      </c>
       <c r="I5" t="s">
         <v>85</v>
       </c>
@@ -3046,7 +3156,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.160060120677433E8</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -3621,7 +3731,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3629,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3641,7 +3751,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.265625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="true"/>
@@ -3657,62 +3767,62 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H2" t="n">
-        <v>537251.0</v>
+        <v>29.177889887460307</v>
       </c>
       <c r="I2" t="n">
-        <v>537251.0</v>
+        <v>760716.8999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
@@ -3720,32 +3830,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>238237.0</v>
+        <v>4345.0</v>
       </c>
       <c r="I3" t="n">
-        <v>238237.0</v>
+        <v>1.021075E8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -3753,32 +3863,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>536806.0</v>
+        <v>4172.0</v>
       </c>
       <c r="I4" t="n">
-        <v>536806.0</v>
+        <v>9.8042E7</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="s">
         <v>85</v>
@@ -3786,32 +3896,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>75604.0</v>
+        <v>4113.0</v>
       </c>
       <c r="I5" t="n">
-        <v>75604.0</v>
+        <v>9.66555E7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -3819,7 +3929,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -3828,23 +3938,23 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>113622.0</v>
+        <v>3742.0</v>
       </c>
       <c r="I6" t="n">
-        <v>113622.0</v>
+        <v>8.7937E7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="s">
         <v>85</v>
@@ -3852,32 +3962,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
-        <v>287474.0</v>
+        <v>3420.0</v>
       </c>
       <c r="I7" t="n">
-        <v>287474.0</v>
+        <v>8.037E7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="s">
         <v>85</v>
@@ -3885,16 +3995,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -3904,10 +4014,10 @@
         <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>4113.0</v>
+        <v>2967.0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.66555E7</v>
+        <v>6.97245E7</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
@@ -3918,16 +4028,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -3937,10 +4047,10 @@
         <v>81</v>
       </c>
       <c r="H9" t="n">
-        <v>4172.0</v>
+        <v>2852.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.8042E7</v>
+        <v>6.7022E7</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
@@ -3951,16 +4061,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="B10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.0</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
@@ -3970,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="H10" t="n">
-        <v>1626.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8211E7</v>
+        <v>6.6975E7</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -3984,16 +4094,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.0</v>
+        <v>56.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -4003,10 +4113,10 @@
         <v>81</v>
       </c>
       <c r="H11" t="n">
-        <v>3420.0</v>
+        <v>2053.0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.037E7</v>
+        <v>4.82455E7</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
@@ -4017,16 +4127,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.0</v>
+        <v>45.0</v>
       </c>
       <c r="B12" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -4036,10 +4146,10 @@
         <v>81</v>
       </c>
       <c r="H12" t="n">
-        <v>3742.0</v>
+        <v>1990.0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.7937E7</v>
+        <v>4.6765E7</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
@@ -4050,16 +4160,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.0</v>
+        <v>54.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
@@ -4069,10 +4179,10 @@
         <v>81</v>
       </c>
       <c r="H13" t="n">
-        <v>4345.0</v>
+        <v>1875.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.021075E8</v>
+        <v>4.40625E7</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
@@ -4083,32 +4193,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H14" t="n">
-        <v>1.23345779E8</v>
+        <v>1626.0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.21583291289651E12</v>
+        <v>3.8211E7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -4116,32 +4226,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="B15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C15" t="n">
         <v>2.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
-        <v>210.0</v>
+        <v>1177.0</v>
       </c>
       <c r="I15" t="n">
-        <v>5475054.899999999</v>
+        <v>2.76595E7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="s">
         <v>85</v>
@@ -4149,16 +4259,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>66.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
@@ -4168,10 +4278,10 @@
         <v>205</v>
       </c>
       <c r="H16" t="n">
-        <v>490.0</v>
+        <v>990.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.27751281E7</v>
+        <v>2.5810973099999998E7</v>
       </c>
       <c r="J16" t="n">
         <v>0.004</v>
@@ -4182,16 +4292,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.0</v>
+        <v>67.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
@@ -4201,10 +4311,10 @@
         <v>205</v>
       </c>
       <c r="H17" t="n">
-        <v>481.0</v>
+        <v>973.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2540482889999999E7</v>
+        <v>2.5367754369999997E7</v>
       </c>
       <c r="J17" t="n">
         <v>0.004</v>
@@ -4215,16 +4325,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.0</v>
+        <v>69.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
@@ -4234,10 +4344,10 @@
         <v>205</v>
       </c>
       <c r="H18" t="n">
-        <v>287.0</v>
+        <v>814.0</v>
       </c>
       <c r="I18" t="n">
-        <v>7482575.029999999</v>
+        <v>2.122235566E7</v>
       </c>
       <c r="J18" t="n">
         <v>0.004</v>
@@ -4248,16 +4358,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.0</v>
+        <v>73.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
@@ -4267,10 +4377,10 @@
         <v>205</v>
       </c>
       <c r="H19" t="n">
-        <v>491.0</v>
+        <v>740.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.280119979E7</v>
+        <v>1.9293050599999998E7</v>
       </c>
       <c r="J19" t="n">
         <v>0.004</v>
@@ -4281,32 +4391,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.0</v>
+        <v>60.0</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H20" t="n">
-        <v>9980102.0</v>
+        <v>710.0</v>
       </c>
       <c r="I20" t="n">
-        <v>9980102.0</v>
+        <v>1.85108999E7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -4314,32 +4424,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.0</v>
+        <v>48.0</v>
       </c>
       <c r="B21" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="n">
-        <v>5476967.0</v>
+        <v>779.0</v>
       </c>
       <c r="I21" t="n">
-        <v>5476967.0</v>
+        <v>1.83065E7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
@@ -4347,32 +4457,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>58.0</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H22" t="n">
-        <v>4549845.0</v>
+        <v>676.0</v>
       </c>
       <c r="I22" t="n">
-        <v>4549845.0</v>
+        <v>1.7624462439999998E7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -4380,32 +4490,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.0</v>
+        <v>68.0</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H23" t="n">
-        <v>5863377.0</v>
+        <v>658.0</v>
       </c>
       <c r="I23" t="n">
-        <v>5863377.0</v>
+        <v>1.715517202E7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K23" t="s">
         <v>85</v>
@@ -4413,32 +4523,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>70.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H24" t="n">
-        <v>8448457.0</v>
+        <v>656.0</v>
       </c>
       <c r="I24" t="n">
-        <v>8448457.0</v>
+        <v>1.710302864E7</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -4446,32 +4556,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.0</v>
+        <v>57.0</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H25" t="n">
-        <v>3872282.0</v>
+        <v>646.0</v>
       </c>
       <c r="I25" t="n">
-        <v>3872282.0</v>
+        <v>1.684231174E7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K25" t="s">
         <v>85</v>
@@ -4479,32 +4589,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.0</v>
+        <v>59.0</v>
       </c>
       <c r="B26" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H26" t="n">
-        <v>5739796.0</v>
+        <v>643.0</v>
       </c>
       <c r="I26" t="n">
-        <v>5739796.0</v>
+        <v>1.676409667E7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -4512,32 +4622,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>55.0</v>
       </c>
       <c r="B27" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
-        <v>7755939.0</v>
+        <v>662.0</v>
       </c>
       <c r="I27" t="n">
-        <v>7755939.0</v>
+        <v>1.5557E7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="s">
         <v>85</v>
@@ -4545,32 +4655,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.0</v>
+        <v>61.0</v>
       </c>
       <c r="B28" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C28" t="n">
         <v>3.0</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H28" t="n">
-        <v>7213398.0</v>
+        <v>555.0</v>
       </c>
       <c r="I28" t="n">
-        <v>7213398.0</v>
+        <v>1.446978795E7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K28" t="s">
         <v>85</v>
@@ -4578,32 +4688,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="B29" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="C29" t="n">
         <v>3.0</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H29" t="n">
-        <v>6577462.0</v>
+        <v>491.0</v>
       </c>
       <c r="I29" t="n">
-        <v>6577462.0</v>
+        <v>1.280119979E7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -4611,32 +4721,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="B30" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H30" t="n">
-        <v>2960169.0</v>
+        <v>490.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2960169.0</v>
+        <v>1.27751281E7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -4644,32 +4754,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="B31" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="n">
         <v>3.0</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H31" t="n">
-        <v>8009206.0</v>
+        <v>481.0</v>
       </c>
       <c r="I31" t="n">
-        <v>8009206.0</v>
+        <v>1.2540482889999999E7</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K31" t="s">
         <v>85</v>
@@ -4677,32 +4787,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31.0</v>
+        <v>72.0</v>
       </c>
       <c r="B32" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H32" t="n">
-        <v>7747227.0</v>
+        <v>470.0</v>
       </c>
       <c r="I32" t="n">
-        <v>7747227.0</v>
+        <v>1.2253694299999999E7</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -4710,32 +4820,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32.0</v>
+        <v>62.0</v>
       </c>
       <c r="B33" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H33" t="n">
-        <v>8563947.0</v>
+        <v>445.0</v>
       </c>
       <c r="I33" t="n">
-        <v>8563947.0</v>
+        <v>1.1601902049999999E7</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -4743,32 +4853,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.0</v>
+        <v>74.0</v>
       </c>
       <c r="B34" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n">
         <v>2.0</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
         <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H34" t="n">
-        <v>9371489.0</v>
+        <v>426.0</v>
       </c>
       <c r="I34" t="n">
-        <v>9371489.0</v>
+        <v>1.110653994E7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -4776,32 +4886,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C35" t="n">
         <v>2.0</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="n">
         <v>0.0</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="n">
-        <v>5359387.0</v>
+        <v>434.0</v>
       </c>
       <c r="I35" t="n">
-        <v>5359387.0</v>
+        <v>1.0199E7</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -4809,32 +4919,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35.0</v>
+        <v>75.0</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
         <v>0.0</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H36" t="n">
-        <v>7487506.0</v>
+        <v>389.0</v>
       </c>
       <c r="I36" t="n">
-        <v>7487506.0</v>
+        <v>1.014188741E7</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K36" t="s">
         <v>85</v>
@@ -4842,16 +4952,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36.0</v>
+        <v>19.0</v>
       </c>
       <c r="B37" t="n">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="n">
@@ -4861,10 +4971,10 @@
         <v>80</v>
       </c>
       <c r="H37" t="n">
-        <v>1603258.0</v>
+        <v>9980102.0</v>
       </c>
       <c r="I37" t="n">
-        <v>1603258.0</v>
+        <v>9980102.0</v>
       </c>
       <c r="J37" t="n">
         <v>0.005</v>
@@ -4875,32 +4985,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="B38" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="n">
         <v>0.0</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="n">
-        <v>2798196.0</v>
+        <v>420.0</v>
       </c>
       <c r="I38" t="n">
-        <v>2798196.0</v>
+        <v>9870000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K38" t="s">
         <v>85</v>
@@ -4908,32 +5018,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="C39" t="n">
         <v>2.0</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" t="n">
-        <v>150.0</v>
+        <v>9371489.0</v>
       </c>
       <c r="I39" t="n">
-        <v>3525000.0</v>
+        <v>9371489.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K39" t="s">
         <v>85</v>
@@ -4941,32 +5051,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="n">
         <v>0.0</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="n">
-        <v>2967.0</v>
+        <v>8563947.0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.97245E7</v>
+        <v>8563947.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
@@ -4974,16 +5084,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="C41" t="n">
         <v>3.0</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
@@ -4993,10 +5103,10 @@
         <v>81</v>
       </c>
       <c r="H41" t="n">
-        <v>214.0</v>
+        <v>360.0</v>
       </c>
       <c r="I41" t="n">
-        <v>5029000.0</v>
+        <v>8460000.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -5007,32 +5117,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C42" t="n">
         <v>3.0</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
         <v>0.0</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" t="n">
-        <v>2850.0</v>
+        <v>8448457.0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.6975E7</v>
+        <v>8448457.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
@@ -5040,16 +5150,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B43" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
@@ -5059,10 +5169,10 @@
         <v>81</v>
       </c>
       <c r="H43" t="n">
-        <v>2852.0</v>
+        <v>351.0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.7022E7</v>
+        <v>8248500.0</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -5073,32 +5183,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="B44" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" t="n">
-        <v>351.0</v>
+        <v>8009206.0</v>
       </c>
       <c r="I44" t="n">
-        <v>8248500.0</v>
+        <v>8009206.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="s">
         <v>85</v>
@@ -5106,32 +5216,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
         <v>0.0</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" t="n">
-        <v>124.0</v>
+        <v>7755939.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2914000.0</v>
+        <v>7755939.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
@@ -5139,32 +5249,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="B46" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" t="n">
-        <v>1990.0</v>
+        <v>7747227.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.6765E7</v>
+        <v>7747227.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
@@ -5172,32 +5282,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="B47" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
-        <v>434.0</v>
+        <v>7487506.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0199E7</v>
+        <v>7487506.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
@@ -5205,32 +5315,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="B48" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
         <v>0.0</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H48" t="n">
-        <v>1177.0</v>
+        <v>287.0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.76595E7</v>
+        <v>7482575.029999999</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
@@ -5238,32 +5348,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48.0</v>
+        <v>27.0</v>
       </c>
       <c r="B49" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" t="n">
-        <v>779.0</v>
+        <v>7213398.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.83065E7</v>
+        <v>7213398.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -5271,32 +5381,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49.0</v>
+        <v>28.0</v>
       </c>
       <c r="B50" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C50" t="n">
         <v>3.0</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
         <v>0.0</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" t="n">
-        <v>360.0</v>
+        <v>6577462.0</v>
       </c>
       <c r="I50" t="n">
-        <v>8460000.0</v>
+        <v>6577462.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K50" t="s">
         <v>85</v>
@@ -5304,16 +5414,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="B51" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="n">
@@ -5323,10 +5433,10 @@
         <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>270.0</v>
+        <v>277.0</v>
       </c>
       <c r="I51" t="n">
-        <v>6345000.0</v>
+        <v>6509500.0</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
@@ -5337,16 +5447,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B52" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
@@ -5356,10 +5466,10 @@
         <v>81</v>
       </c>
       <c r="H52" t="n">
-        <v>194.0</v>
+        <v>270.0</v>
       </c>
       <c r="I52" t="n">
-        <v>4559000.0</v>
+        <v>6345000.0</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -5370,32 +5480,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
       <c r="B53" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
         <v>0.0</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H53" t="n">
-        <v>420.0</v>
+        <v>242.0</v>
       </c>
       <c r="I53" t="n">
-        <v>9870000.0</v>
+        <v>6309348.9799999995</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
@@ -5403,32 +5513,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53.0</v>
+        <v>22.0</v>
       </c>
       <c r="B54" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="n">
         <v>0.0</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" t="n">
-        <v>277.0</v>
+        <v>5863377.0</v>
       </c>
       <c r="I54" t="n">
-        <v>6509500.0</v>
+        <v>5863377.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K54" t="s">
         <v>85</v>
@@ -5436,32 +5546,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
       <c r="B55" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
         <v>0.0</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" t="n">
-        <v>1875.0</v>
+        <v>5739796.0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.40625E7</v>
+        <v>5739796.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
@@ -5469,32 +5579,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
       <c r="B56" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="n">
         <v>0.0</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" t="n">
-        <v>662.0</v>
+        <v>5476967.0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.5557E7</v>
+        <v>5476967.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K56" t="s">
         <v>85</v>
@@ -5502,32 +5612,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56.0</v>
+        <v>14.0</v>
       </c>
       <c r="B57" t="n">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="n">
         <v>0.0</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H57" t="n">
-        <v>2053.0</v>
+        <v>210.0</v>
       </c>
       <c r="I57" t="n">
-        <v>4.82455E7</v>
+        <v>5475054.899999999</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K57" t="s">
         <v>85</v>
@@ -5535,32 +5645,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="B58" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
         <v>0.0</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H58" t="n">
-        <v>646.0</v>
+        <v>5359387.0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.684231174E7</v>
+        <v>5359387.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
@@ -5568,32 +5678,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="B59" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
         <v>0.0</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H59" t="n">
-        <v>676.0</v>
+        <v>214.0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.7624462439999998E7</v>
+        <v>5029000.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="s">
         <v>85</v>
@@ -5601,32 +5711,32 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0</v>
+        <v>51.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="C60" t="n">
         <v>1.0</v>
       </c>
       <c r="D60" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H60" t="n">
-        <v>643.0</v>
+        <v>194.0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.676409667E7</v>
+        <v>4559000.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K60" t="s">
         <v>85</v>
@@ -5634,32 +5744,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.0</v>
+        <v>21.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C61" t="n">
         <v>3.0</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
         <v>0.0</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H61" t="n">
-        <v>710.0</v>
+        <v>4549845.0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.85108999E7</v>
+        <v>4549845.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
@@ -5667,32 +5777,32 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.0</v>
+        <v>24.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
         <v>0.0</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H62" t="n">
-        <v>555.0</v>
+        <v>3872282.0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.446978795E7</v>
+        <v>3872282.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
@@ -5700,32 +5810,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="B63" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C63" t="n">
         <v>2.0</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="n">
         <v>0.0</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H63" t="n">
-        <v>445.0</v>
+        <v>150.0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1601902049999999E7</v>
+        <v>3525000.0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="s">
         <v>85</v>
@@ -5733,32 +5843,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.0</v>
+        <v>29.0</v>
       </c>
       <c r="B64" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C64" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
         <v>0.0</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H64" t="n">
-        <v>44.0</v>
+        <v>2960169.0</v>
       </c>
       <c r="I64" t="n">
-        <v>1147154.3599999999</v>
+        <v>2960169.0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
@@ -5766,32 +5876,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.0</v>
+        <v>44.0</v>
       </c>
       <c r="B65" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C65" t="n">
         <v>3.0</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
         <v>0.0</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H65" t="n">
-        <v>242.0</v>
+        <v>124.0</v>
       </c>
       <c r="I65" t="n">
-        <v>6309348.9799999995</v>
+        <v>2914000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
@@ -5799,32 +5909,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.0</v>
+        <v>37.0</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
         <v>0.0</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H66" t="n">
-        <v>83.0</v>
+        <v>2798196.0</v>
       </c>
       <c r="I66" t="n">
-        <v>2163950.27</v>
+        <v>2798196.0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
@@ -5832,16 +5942,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="B67" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n">
         <v>2.0</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
@@ -5851,10 +5961,10 @@
         <v>205</v>
       </c>
       <c r="H67" t="n">
-        <v>990.0</v>
+        <v>90.0</v>
       </c>
       <c r="I67" t="n">
-        <v>2.5810973099999998E7</v>
+        <v>2346452.1</v>
       </c>
       <c r="J67" t="n">
         <v>0.004</v>
@@ -5865,16 +5975,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="B68" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
@@ -5884,10 +5994,10 @@
         <v>205</v>
       </c>
       <c r="H68" t="n">
-        <v>973.0</v>
+        <v>83.0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.5367754369999997E7</v>
+        <v>2163950.27</v>
       </c>
       <c r="J68" t="n">
         <v>0.004</v>
@@ -5898,32 +6008,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.0</v>
+        <v>36.0</v>
       </c>
       <c r="B69" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="C69" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="n">
         <v>0.0</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H69" t="n">
-        <v>658.0</v>
+        <v>1603258.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.715517202E7</v>
+        <v>1603258.0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
@@ -5931,16 +6041,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="B70" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C70" t="n">
         <v>3.0</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
@@ -5950,10 +6060,10 @@
         <v>205</v>
       </c>
       <c r="H70" t="n">
-        <v>814.0</v>
+        <v>44.0</v>
       </c>
       <c r="I70" t="n">
-        <v>2.122235566E7</v>
+        <v>1147154.3599999999</v>
       </c>
       <c r="J70" t="n">
         <v>0.004</v>
@@ -5964,32 +6074,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="B71" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
         <v>0.0</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H71" t="n">
-        <v>656.0</v>
+        <v>37251.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.710302864E7</v>
+        <v>37251.0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
@@ -5997,32 +6107,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.0</v>
+        <v>3.0</v>
       </c>
       <c r="B72" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="C72" t="n">
         <v>2.0</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="n">
         <v>0.0</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H72" t="n">
-        <v>90.0</v>
+        <v>536806.0</v>
       </c>
       <c r="I72" t="n">
-        <v>2346452.1</v>
+        <v>536806.0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
@@ -6030,32 +6140,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.0</v>
+        <v>6.0</v>
       </c>
       <c r="B73" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="C73" t="n">
         <v>2.0</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
         <v>0.0</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H73" t="n">
-        <v>470.0</v>
+        <v>287474.0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.2253694299999999E7</v>
+        <v>287474.0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
@@ -6063,32 +6173,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.0</v>
+        <v>2.0</v>
       </c>
       <c r="B74" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
         <v>0.0</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>740.0</v>
+        <v>238237.0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.9293050599999998E7</v>
+        <v>238237.0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K74" t="s">
         <v>85</v>
@@ -6096,32 +6206,32 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.0</v>
+        <v>5.0</v>
       </c>
       <c r="B75" t="n">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="C75" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
         <v>0.0</v>
       </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H75" t="n">
-        <v>426.0</v>
+        <v>113622.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.110653994E7</v>
+        <v>113622.0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
@@ -6129,32 +6239,32 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="B76" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
         <v>0.0</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H76" t="n">
-        <v>389.0</v>
+        <v>99999.0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.014188741E7</v>
+        <v>99999.0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
@@ -6162,16 +6272,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.0</v>
+        <v>4.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
@@ -6181,10 +6291,10 @@
         <v>80</v>
       </c>
       <c r="H77" t="n">
-        <v>9.999999999E9</v>
+        <v>75604.0</v>
       </c>
       <c r="I77" t="n">
-        <v>9.999999999E9</v>
+        <v>75604.0</v>
       </c>
       <c r="J77" t="n">
         <v>0.005</v>
@@ -6195,10 +6305,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B78" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
@@ -6214,10 +6324,10 @@
         <v>80</v>
       </c>
       <c r="H78" t="n">
-        <v>99999.0</v>
+        <v>9.0</v>
       </c>
       <c r="I78" t="n">
-        <v>99999.0</v>
+        <v>9.0</v>
       </c>
       <c r="J78" t="n">
         <v>0.005</v>
@@ -6259,9 +6369,73 @@
         <v>85</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="n">
+        <v>230145.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.4084075E9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K76" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <autoFilter ref="A1:K76" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K79">
+      <sortCondition descending="1" ref="I1:I76"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -6269,19 +6443,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="5.59765625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.265625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
@@ -6292,41 +6466,41 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6678,8 +6852,12 @@
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>435</v>
+      </c>
       <c r="F12" t="n">
         <v>60.0</v>
       </c>
@@ -6693,10 +6871,10 @@
         <v>5.4084075E9</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -7038,6 +7216,35 @@
         <v>0.037000000000000005</v>
       </c>
       <c r="K22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.10800000000000003</v>
+      </c>
+      <c r="K23" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7056,51 +7263,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="7.1328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="14.3984375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8511,31 +8718,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CEEA2A-F762-4182-90A3-86784995BC41}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="10.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="11.46484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8704,6 +8911,174 @@
         <v>80</v>
       </c>
       <c r="D13" t="n">
+        <v>15281.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23500.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26071.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22035.58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30379.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16271.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="n">
+        <v>191.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23032.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3416.69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2576.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="n">
         <v>15281.28</v>
       </c>
     </row>
@@ -8716,28 +9091,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="12.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="12.796875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="12.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D1" t="s">
@@ -8746,7 +9121,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
     </row>

--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="440">
   <si>
     <t>customerId</t>
   </si>
@@ -3000,7 +3000,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="n">
-        <v>9280480.965419464</v>
+        <v>9617964.724831305</v>
       </c>
       <c r="I2" t="s">
         <v>85</v>
@@ -3029,7 +3029,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.640240482709733E7</v>
+        <v>4.808982362415653E7</v>
       </c>
       <c r="I3" t="s">
         <v>85</v>
@@ -3058,7 +3058,7 @@
         <v>3.0</v>
       </c>
       <c r="H4" t="n">
-        <v>9280480.965419464</v>
+        <v>9617964.724831305</v>
       </c>
       <c r="I4" t="s">
         <v>85</v>
@@ -3087,7 +3087,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3201202413548663E7</v>
+        <v>2.4044911812078264E7</v>
       </c>
       <c r="I5" t="s">
         <v>85</v>
@@ -3156,7 +3156,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.160060120677433E8</v>
+        <v>1.202245590603913E8</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -6376,12 +6376,16 @@
       <c r="B80" t="n">
         <v>1.0</v>
       </c>
-      <c r="C80"/>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D80" t="s">
         <v>312</v>
       </c>
       <c r="E80"/>
-      <c r="F80"/>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G80" t="s">
         <v>82</v>
       </c>
@@ -6412,7 +6416,9 @@
         <v>312</v>
       </c>
       <c r="E81"/>
-      <c r="F81"/>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G81" t="s">
         <v>81</v>
       </c>
@@ -7226,7 +7232,9 @@
       <c r="B23" t="n">
         <v>1.0</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="n">

--- a/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
+++ b/java/project-JavaBank/out/production/project-JavaBank/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="441">
   <si>
     <t>customerId</t>
   </si>
@@ -1401,6 +1401,9 @@
   </si>
   <si>
     <t>2023-05-14 10:34:25</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
   </si>
 </sst>
 </file>
@@ -7561,7 +7564,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9">
@@ -7666,7 +7669,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
@@ -8401,7 +8404,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33">
@@ -8506,7 +8509,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36">
@@ -8541,7 +8544,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
